--- a/Dublin/Fabrication/Sources/Validation/Repair List.xlsx
+++ b/Dublin/Fabrication/Sources/Validation/Repair List.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="-10500" yWindow="460" windowWidth="10500" windowHeight="33140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="B3" sheetId="2" r:id="rId1"/>
     <sheet name="D3" sheetId="1" r:id="rId2"/>
+    <sheet name="To be sorted" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
   <si>
     <t>OBJECT ID</t>
   </si>
@@ -57,18 +58,12 @@
     <t>D3.5</t>
   </si>
   <si>
-    <t>D3.10</t>
-  </si>
-  <si>
     <t>D3.12</t>
   </si>
   <si>
     <t>D3.13</t>
   </si>
   <si>
-    <t>D3.15</t>
-  </si>
-  <si>
     <t>D3.21</t>
   </si>
   <si>
@@ -220,14 +215,55 @@
   </si>
   <si>
     <t>Height</t>
+  </si>
+  <si>
+    <t>Fix height on south</t>
+  </si>
+  <si>
+    <t>Fix height on North</t>
+  </si>
+  <si>
+    <t>D310A</t>
+  </si>
+  <si>
+    <t>D310B</t>
+  </si>
+  <si>
+    <t>Fix height on East</t>
+  </si>
+  <si>
+    <t>﻿repair_id2</t>
+  </si>
+  <si>
+    <t>﻿D3.13A</t>
+  </si>
+  <si>
+    <t>﻿D3.13B</t>
+  </si>
+  <si>
+    <t>D3.15A</t>
+  </si>
+  <si>
+    <t>D3.15B</t>
+  </si>
+  <si>
+    <t>Fix height on South</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -255,11 +291,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,36 +587,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
         <v>51287</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1">
         <v>51360</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -589,22 +626,22 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>51397</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -619,13 +656,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1">
         <v>51409</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -635,79 +672,79 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1">
         <v>51427</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>51398</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>63974</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>63977</v>
@@ -720,74 +757,74 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24">
         <v>51574</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26">
         <v>51394</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B28">
         <v>51368</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -797,10 +834,343 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:D52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>30079</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>29702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>30071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <v>30037</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>29732</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>29783</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10">
+        <v>29752</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>29768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>29758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>112926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>112794</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>112615</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>112631</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>112337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>112335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>112635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>112372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>112369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>112367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>112366</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>111792</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>111839</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>111919</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>111915</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>111938</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>112965</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>33611</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>33876</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>33875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>33872</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>33867</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>33869</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>33870</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>33873</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40">
+        <v>30258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41">
+        <v>31447</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="C51">
+    <sortCondition ref="C2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -843,258 +1213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>30079</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>29702</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>30071</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>30037</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>29732</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>29783</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>29752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15">
-        <v>29768</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>29758</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>112926</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18">
-        <v>112794</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>112615</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20">
-        <v>112631</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22">
-        <v>112337</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>112335</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>112635</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25">
-        <v>112372</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>112369</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>112367</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>112366</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29">
-        <v>111792</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30">
-        <v>111839</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31">
-        <v>111919</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <v>111915</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33">
-        <v>111938</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34">
-        <v>112965</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35">
-        <v>33611</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36">
-        <v>33876</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <v>33875</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B38">
-        <v>33872</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B39">
-        <v>33867</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B40">
-        <v>33869</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B41">
-        <v>33870</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B42">
-        <v>33873</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43">
-        <v>30258</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44">
-        <v>31447</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="B3">
-    <sortCondition ref="B2"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>